--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA297F-4222-418B-AAC6-B9156A5343B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77182098-5F22-48EE-B1B9-00D761FBA406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>CometFace</t>
   </si>
   <si>
-    <t>Clubstep v2*</t>
-  </si>
-  <si>
-    <t>Electrodynamix v2*</t>
-  </si>
-  <si>
     <t>Cant Let Vulc</t>
   </si>
   <si>
@@ -524,12 +518,6 @@
     <t>CyanBoi</t>
   </si>
   <si>
-    <t>Theory of Every v2*</t>
-  </si>
-  <si>
-    <t>Electroman Adven v2*</t>
-  </si>
-  <si>
     <t>Common s3nse</t>
   </si>
   <si>
@@ -627,6 +615,18 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Theory of Every v2</t>
+  </si>
+  <si>
+    <t>Electroman Adven v2</t>
+  </si>
+  <si>
+    <t>Clubstep v2</t>
+  </si>
+  <si>
+    <t>Electrodynamix v2</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068AFFB6-380B-984F-B14E-0E23285F277F}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="64" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="101" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,8 +1254,8 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="104.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="111.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B2" s="3">
         <v>369294</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3">
         <v>27</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3">
         <v>428765</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3">
         <v>28</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3">
         <v>450920</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3">
         <v>839175</v>
@@ -1778,19 +1778,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B12" s="3">
         <v>55520</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3">
         <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3">
         <v>76799716</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" s="3">
         <f>71+381</f>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3">
         <v>22390740</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3">
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="3">
         <v>191</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3">
         <v>28352064</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3">
         <v>42</v>
@@ -2076,19 +2076,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3">
         <v>90475473</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="3">
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="3">
         <f>34+281</f>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B20" s="3">
         <v>89886591</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3">
         <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3">
         <v>10109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="3">
         <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F21" s="3">
         <v>597</v>
@@ -2289,19 +2289,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3">
         <v>70444933</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3">
         <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3">
         <f>595+313</f>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3">
         <v>62378908</v>
@@ -2344,7 +2344,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3">
         <f>954+1281</f>
@@ -2375,19 +2375,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="3">
         <v>1347537</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3">
         <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F26" s="3">
         <v>53</v>
@@ -2417,19 +2417,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B27" s="3">
         <v>92716951</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="3">
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F27" s="3">
         <v>32</v>
@@ -2459,19 +2459,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="3">
         <v>102246454</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3">
         <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="3">
         <v>354</v>
@@ -2501,19 +2501,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3">
         <v>76047685</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3">
         <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F29" s="3">
         <v>295</v>
@@ -2543,19 +2543,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="3">
         <v>88023111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3">
         <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="3">
         <v>171</v>
@@ -2585,19 +2585,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B31" s="3">
         <v>91279768</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3">
         <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F31" s="3">
         <v>35</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3">
         <v>12556</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3">
         <v>71</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3">
         <v>609</v>
@@ -2840,19 +2840,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="3">
         <v>18025697</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="3">
         <v>75</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" s="3">
         <f>499+439</f>
@@ -2883,19 +2883,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3">
         <v>23189196</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3">
         <v>76</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F38" s="3">
         <f>286+64</f>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B39" s="3">
         <v>63087691</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3">
         <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3">
         <v>201</v>
@@ -2968,19 +2968,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3">
         <v>77132030</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3">
         <v>78</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F40" s="3">
         <f>206+48</f>
@@ -3011,19 +3011,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B41" s="3">
         <v>78797905</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3">
         <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F41" s="3">
         <v>171</v>
@@ -3053,19 +3053,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="3">
         <v>107791691</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="3">
         <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F42" s="3">
         <f>127+80</f>
@@ -3096,19 +3096,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3">
         <v>98071844</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3">
         <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F43" s="3">
         <v>133</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3">
         <v>27143567</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3">
         <v>82</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F44" s="3">
         <f>258+37</f>
@@ -3181,19 +3181,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3">
         <v>105383537</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3">
         <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3">
         <v>266</v>
@@ -3223,19 +3223,19 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="3">
         <v>76821414</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3">
         <v>84</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F46" s="3">
         <f>332+196</f>
@@ -3266,19 +3266,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" s="3">
         <v>86880648</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="3">
         <v>85</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F47" s="3">
         <v>215</v>
@@ -3308,19 +3308,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" s="3">
         <v>14487546</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="3">
         <v>86</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="3">
         <v>237</v>
@@ -3350,19 +3350,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="3">
         <v>103574402</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="3">
         <v>87</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F49" s="3">
         <f>84+167</f>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3">
         <v>38514054</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="3">
         <v>88</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F50" s="3">
         <f>127+48</f>
@@ -3436,19 +3436,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B51" s="3">
         <v>76564776</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="3">
         <v>89</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F51" s="3">
         <f>104+68</f>
@@ -3479,19 +3479,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3">
         <v>62067918</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="3">
         <v>90</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F52" s="3">
         <f>144+192</f>
@@ -3522,19 +3522,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3">
         <v>8660411</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="3">
         <v>91</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="3">
         <f>178+450</f>
@@ -3565,19 +3565,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="3">
         <v>86012792</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="3">
         <v>92</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F54" s="3">
         <f>198+21</f>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="3">
         <v>104151099</v>
@@ -3620,7 +3620,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F55" s="3">
         <f>181+73</f>
@@ -3651,19 +3651,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3">
         <v>15619194</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D56" s="3">
         <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="3">
         <f>79+150</f>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" s="3">
         <v>27912428</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="3">
         <v>95</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" s="3">
         <f>223+189</f>
@@ -3737,19 +3737,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="3">
         <v>81742215</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D58" s="3">
         <v>96</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" s="3">
         <f>534+847</f>
@@ -3777,24 +3777,24 @@
         <v>4.46</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3">
         <v>77428474</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D59" s="3">
         <v>97</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <f>320+466</f>
@@ -3822,7 +3822,7 @@
         <v>5.37</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="3">
         <v>7016598</v>
@@ -4057,7 +4057,7 @@
         <v>103</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="3">
         <f>279+67</f>
@@ -4128,7 +4128,7 @@
         <v>6.8</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="3">
         <v>86665617</v>
@@ -4233,7 +4233,7 @@
         <v>107</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="3">
         <v>1437</v>
@@ -4260,7 +4260,7 @@
         <v>6.4</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4349,24 +4349,24 @@
         <v>13.19</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B72" s="3">
         <v>112204024</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D72" s="3">
         <v>110</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F72" s="3">
         <v>340</v>
@@ -4393,7 +4393,7 @@
         <v>3.3</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4664,19 +4664,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B79" s="3">
         <v>106696944</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="3">
         <v>118</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F79" s="3">
         <v>439</v>
@@ -4703,12 +4703,12 @@
         <v>4.59</v>
       </c>
       <c r="N79" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3">
         <v>7887341</v>
@@ -4720,7 +4720,7 @@
         <v>123</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F80" s="3">
         <v>1775</v>
@@ -4747,12 +4747,12 @@
         <v>10.39</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3">
         <v>38445559</v>
@@ -4764,7 +4764,7 @@
         <v>124</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F81" s="3">
         <v>3376</v>
@@ -4791,24 +4791,24 @@
         <v>11.94</v>
       </c>
       <c r="N81" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B82" s="3">
         <v>9864147</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" s="3">
         <v>125</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F82" s="3">
         <v>575</v>
@@ -4832,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="M82" s="17">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">

--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77182098-5F22-48EE-B1B9-00D761FBA406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6568CB6-1140-401C-A8A6-54F5FE300682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -627,6 +627,21 @@
   </si>
   <si>
     <t>Electrodynamix v2</t>
+  </si>
+  <si>
+    <t>Difficulty Face</t>
+  </si>
+  <si>
+    <t>assets\easy demon.png</t>
+  </si>
+  <si>
+    <t>assets\medium demon.png</t>
+  </si>
+  <si>
+    <t>assets\hard demon.png</t>
+  </si>
+  <si>
+    <t>assets\insane demon.png</t>
   </si>
 </sst>
 </file>
@@ -744,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,11 +837,18 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -914,26 +936,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07653A7A-48C6-4AE3-B2A5-4AA511D3C861}" name="Table1" displayName="Table1" ref="A1:N204" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N204" xr:uid="{07653A7A-48C6-4AE3-B2A5-4AA511D3C861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07653A7A-48C6-4AE3-B2A5-4AA511D3C861}" name="Table1" displayName="Table1" ref="A1:O204" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O204" xr:uid="{07653A7A-48C6-4AE3-B2A5-4AA511D3C861}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N204">
     <sortCondition ref="D1:D204"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{56DF459D-08D6-4AB1-B9B2-71C007AC59D2}" name="Name" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{51D909E7-5796-48D9-B1C8-AB9E9912ED53}" name="id" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{288996E6-CB83-4073-A21D-AE12D4E8ED9B}" name="Difficulty" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AFF4338A-8FE0-4BB7-AA4B-F9CD876E0BFB}" name="Demon #" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0B3E96BD-0AB1-4296-806D-23D4FA0EE61B}" name="Creator" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BA15436F-983E-41FC-805A-F7E962570746}" name="Attempts" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D3151768-B3F2-4000-945A-B7C49D94A1B3}" name="Enjoyment (/10)" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{147DC1DB-90AB-4BBC-A8AD-7579002940F7}" name="Date Beaten" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{38DBF703-EC39-164E-A407-6E542BA68339}" name="Hardest?" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{F0AA1DE1-B6A9-D04C-9988-2C62A366D6B6}" name="GDDL Hardest?" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{61951582-C4D0-D541-A56A-F1BEA764E275}" name="Length" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{C7419438-83E2-B040-A057-8B87F10542CA}" name="Old Attempts" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{17F71645-FB54-684E-994F-427F3E2E51D0}" name="GDDL Rating" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{EEEEF184-2B4D-C844-8524-3F4F1A03CDC9}" name="Comments" dataDxfId="1"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{56DF459D-08D6-4AB1-B9B2-71C007AC59D2}" name="Name" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{51D909E7-5796-48D9-B1C8-AB9E9912ED53}" name="id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{288996E6-CB83-4073-A21D-AE12D4E8ED9B}" name="Difficulty" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AFF4338A-8FE0-4BB7-AA4B-F9CD876E0BFB}" name="Demon #" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0B3E96BD-0AB1-4296-806D-23D4FA0EE61B}" name="Creator" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{BA15436F-983E-41FC-805A-F7E962570746}" name="Attempts" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D3151768-B3F2-4000-945A-B7C49D94A1B3}" name="Enjoyment (/10)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{147DC1DB-90AB-4BBC-A8AD-7579002940F7}" name="Date Beaten" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{38DBF703-EC39-164E-A407-6E542BA68339}" name="Hardest?" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{F0AA1DE1-B6A9-D04C-9988-2C62A366D6B6}" name="GDDL Hardest?" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{61951582-C4D0-D541-A56A-F1BEA764E275}" name="Length" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{C7419438-83E2-B040-A057-8B87F10542CA}" name="Old Attempts" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{17F71645-FB54-684E-994F-427F3E2E51D0}" name="GDDL Rating" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{EEEEF184-2B4D-C844-8524-3F4F1A03CDC9}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{302F0A8E-13FD-4B09-9026-364054FAEACC}" name="Difficulty Face" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068AFFB6-380B-984F-B14E-0E23285F277F}">
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="101" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,9 +1280,10 @@
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="111.85546875" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1326,11 @@
       <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O1" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>192</v>
       </c>
@@ -1344,20 +1371,23 @@
         <v>2.06</v>
       </c>
       <c r="N2" s="24"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="20" t="s">
+      <c r="O2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="18"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="18">
+      <c r="W2" s="18">
         <f>SUM(Table1[Attempts])</f>
         <v>127482</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>193</v>
       </c>
@@ -1398,20 +1428,23 @@
         <v>1.92</v>
       </c>
       <c r="N3" s="24"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="20" t="s">
+      <c r="O3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="18"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="18">
         <f>ROUND(AVERAGE(Table1[Attempts]),0)</f>
         <v>1574</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
@@ -1452,20 +1485,23 @@
         <v>6.73</v>
       </c>
       <c r="N4" s="24"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="19"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="20" t="s">
+      <c r="O4" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="19">
+      <c r="W4" s="19">
         <f>AVERAGE(Table1[Enjoyment (/10)])</f>
         <v>7.2283950617283947</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
@@ -1506,20 +1542,23 @@
         <v>6.59</v>
       </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="20" t="s">
+      <c r="O5" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="18"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="18">
+      <c r="W5" s="18">
         <f>MAX(Table1[Attempts])</f>
         <v>18022</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1560,8 +1599,11 @@
         <v>7.75</v>
       </c>
       <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O6" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1603,8 +1645,11 @@
         <v>11.66</v>
       </c>
       <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O7" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1646,8 +1691,11 @@
         <v>11.19</v>
       </c>
       <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O8" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -1689,8 +1737,11 @@
         <v>6.89</v>
       </c>
       <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O9" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -1732,8 +1783,11 @@
         <v>7.11</v>
       </c>
       <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1775,8 +1829,11 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>175</v>
       </c>
@@ -1817,8 +1874,11 @@
         <v>1.03</v>
       </c>
       <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>144</v>
       </c>
@@ -1860,8 +1920,11 @@
         <v>2.8</v>
       </c>
       <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>155</v>
       </c>
@@ -1902,8 +1965,11 @@
         <v>2.09</v>
       </c>
       <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O14" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1945,8 +2011,11 @@
         <v>12.77</v>
       </c>
       <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O15" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1988,8 +2057,11 @@
         <v>10.75</v>
       </c>
       <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>169</v>
       </c>
@@ -2030,8 +2102,11 @@
         <v>1.69</v>
       </c>
       <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2073,8 +2148,11 @@
         <v>12.86</v>
       </c>
       <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -2116,8 +2194,11 @@
         <v>2.89</v>
       </c>
       <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>165</v>
       </c>
@@ -2158,8 +2239,11 @@
         <v>1.76</v>
       </c>
       <c r="N20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>142</v>
       </c>
@@ -2200,8 +2284,11 @@
         <v>2.81</v>
       </c>
       <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2243,8 +2330,11 @@
         <v>17.260000000000002</v>
       </c>
       <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2286,8 +2376,11 @@
         <v>16.8</v>
       </c>
       <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -2329,8 +2422,11 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -2372,8 +2468,11 @@
         <v>6.36</v>
       </c>
       <c r="N25" s="24"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -2414,8 +2513,11 @@
         <v>2.59</v>
       </c>
       <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -2456,8 +2558,11 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>125</v>
       </c>
@@ -2498,8 +2603,11 @@
         <v>3.41</v>
       </c>
       <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
@@ -2540,8 +2648,11 @@
         <v>2.85</v>
       </c>
       <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>148</v>
       </c>
@@ -2582,8 +2693,11 @@
         <v>2.72</v>
       </c>
       <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>173</v>
       </c>
@@ -2624,8 +2738,11 @@
         <v>1.08</v>
       </c>
       <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2667,8 +2784,11 @@
         <v>6.87</v>
       </c>
       <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2709,8 +2829,11 @@
         <v>6.82</v>
       </c>
       <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
@@ -2752,8 +2875,11 @@
         <v>6.81</v>
       </c>
       <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2795,8 +2921,11 @@
         <v>16.829999999999998</v>
       </c>
       <c r="N35" s="24"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>115</v>
       </c>
@@ -2837,8 +2966,11 @@
         <v>3.84</v>
       </c>
       <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -2880,8 +3012,11 @@
         <v>5.26</v>
       </c>
       <c r="N37" s="24"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>113</v>
       </c>
@@ -2923,8 +3058,11 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="N38" s="24"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>170</v>
       </c>
@@ -2965,8 +3103,11 @@
         <v>1.29</v>
       </c>
       <c r="N39" s="24"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
@@ -3008,8 +3149,11 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="N40" s="24"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -3050,8 +3194,11 @@
         <v>1.72</v>
       </c>
       <c r="N41" s="24"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
@@ -3093,8 +3240,11 @@
         <v>2.09</v>
       </c>
       <c r="N42" s="24"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -3135,8 +3285,11 @@
         <v>1.79</v>
       </c>
       <c r="N43" s="24"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
@@ -3178,8 +3331,11 @@
         <v>3.02</v>
       </c>
       <c r="N44" s="24"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>127</v>
       </c>
@@ -3220,8 +3376,11 @@
         <v>3.3</v>
       </c>
       <c r="N45" s="24"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
@@ -3263,8 +3422,11 @@
         <v>3.72</v>
       </c>
       <c r="N46" s="24"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>159</v>
       </c>
@@ -3305,8 +3467,11 @@
         <v>1.92</v>
       </c>
       <c r="N47" s="24"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>151</v>
       </c>
@@ -3347,8 +3512,11 @@
         <v>2.56</v>
       </c>
       <c r="N48" s="24"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>146</v>
       </c>
@@ -3390,8 +3558,11 @@
         <v>2.75</v>
       </c>
       <c r="N49" s="24"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>138</v>
       </c>
@@ -3433,8 +3604,11 @@
         <v>2.86</v>
       </c>
       <c r="N50" s="24"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>161</v>
       </c>
@@ -3476,8 +3650,11 @@
         <v>1.84</v>
       </c>
       <c r="N51" s="24"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>117</v>
       </c>
@@ -3519,8 +3696,11 @@
         <v>3.81</v>
       </c>
       <c r="N52" s="24"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>123</v>
       </c>
@@ -3562,8 +3742,11 @@
         <v>3.72</v>
       </c>
       <c r="N53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>132</v>
       </c>
@@ -3605,8 +3788,11 @@
         <v>3.05</v>
       </c>
       <c r="N54" s="24"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -3648,8 +3834,11 @@
         <v>4.53</v>
       </c>
       <c r="N55" s="24"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
@@ -3691,8 +3880,11 @@
         <v>3.75</v>
       </c>
       <c r="N56" s="24"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>106</v>
       </c>
@@ -3734,8 +3926,11 @@
         <v>4.72</v>
       </c>
       <c r="N57" s="24"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
@@ -3779,8 +3974,11 @@
       <c r="N58" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>98</v>
       </c>
@@ -3824,8 +4022,11 @@
       <c r="N59" s="24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>77</v>
       </c>
@@ -3867,8 +4068,11 @@
         <v>6.91</v>
       </c>
       <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -3910,8 +4114,11 @@
         <v>6.8</v>
       </c>
       <c r="N61" s="24"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
@@ -3953,8 +4160,11 @@
         <v>7.16</v>
       </c>
       <c r="N62" s="24"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
@@ -3997,8 +4207,11 @@
       <c r="N63" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
@@ -4042,8 +4255,11 @@
       <c r="N64" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -4085,8 +4301,11 @@
         <v>6.1</v>
       </c>
       <c r="N65" s="24"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>89</v>
       </c>
@@ -4130,8 +4349,11 @@
       <c r="N66" s="24" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -4173,8 +4395,11 @@
         <v>7.74</v>
       </c>
       <c r="N67" s="24"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -4218,8 +4443,11 @@
       <c r="N68" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
@@ -4262,8 +4490,11 @@
       <c r="N69" s="24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>55</v>
       </c>
@@ -4306,8 +4537,11 @@
       <c r="N70" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>25</v>
       </c>
@@ -4351,8 +4585,11 @@
       <c r="N71" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>129</v>
       </c>
@@ -4395,8 +4632,11 @@
       <c r="N72" s="24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>61</v>
       </c>
@@ -4439,8 +4679,11 @@
       <c r="N73" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>52</v>
       </c>
@@ -4483,8 +4726,11 @@
       <c r="N74" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>49</v>
       </c>
@@ -4527,8 +4773,11 @@
       <c r="N75" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>45</v>
       </c>
@@ -4572,9 +4821,12 @@
       <c r="N76" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O76" s="24"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" s="24"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>41</v>
       </c>
@@ -4617,8 +4869,11 @@
       <c r="N77" s="24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>33</v>
       </c>
@@ -4661,8 +4916,11 @@
       <c r="N78" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>177</v>
       </c>
@@ -4705,8 +4963,11 @@
       <c r="N79" s="24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>180</v>
       </c>
@@ -4749,8 +5010,11 @@
       <c r="N80" s="24" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>183</v>
       </c>
@@ -4793,8 +5057,11 @@
       <c r="N81" s="24" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>187</v>
       </c>
@@ -4837,8 +5104,11 @@
       <c r="N82" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4853,8 +5123,9 @@
       <c r="L83" s="3"/>
       <c r="M83" s="17"/>
       <c r="N83" s="24"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="15"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4869,8 +5140,9 @@
       <c r="L84" s="3"/>
       <c r="M84" s="17"/>
       <c r="N84" s="24"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="15"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4885,8 +5157,9 @@
       <c r="L85" s="3"/>
       <c r="M85" s="17"/>
       <c r="N85" s="24"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="15"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4901,8 +5174,9 @@
       <c r="L86" s="3"/>
       <c r="M86" s="17"/>
       <c r="N86" s="24"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="15"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4917,8 +5191,9 @@
       <c r="L87" s="3"/>
       <c r="M87" s="17"/>
       <c r="N87" s="24"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="15"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4933,8 +5208,9 @@
       <c r="L88" s="3"/>
       <c r="M88" s="17"/>
       <c r="N88" s="24"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4949,8 +5225,9 @@
       <c r="L89" s="3"/>
       <c r="M89" s="17"/>
       <c r="N89" s="24"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4965,8 +5242,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="17"/>
       <c r="N90" s="24"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="15"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4981,8 +5259,9 @@
       <c r="L91" s="3"/>
       <c r="M91" s="17"/>
       <c r="N91" s="24"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4997,8 +5276,9 @@
       <c r="L92" s="3"/>
       <c r="M92" s="17"/>
       <c r="N92" s="24"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="15"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5013,8 +5293,9 @@
       <c r="L93" s="3"/>
       <c r="M93" s="17"/>
       <c r="N93" s="24"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="15"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5029,8 +5310,9 @@
       <c r="L94" s="3"/>
       <c r="M94" s="17"/>
       <c r="N94" s="24"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="15"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5045,8 +5327,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="17"/>
       <c r="N95" s="24"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="15"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5061,8 +5344,9 @@
       <c r="L96" s="3"/>
       <c r="M96" s="17"/>
       <c r="N96" s="24"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5077,8 +5361,9 @@
       <c r="L97" s="3"/>
       <c r="M97" s="17"/>
       <c r="N97" s="24"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5093,8 +5378,9 @@
       <c r="L98" s="3"/>
       <c r="M98" s="17"/>
       <c r="N98" s="24"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5109,8 +5395,9 @@
       <c r="L99" s="3"/>
       <c r="M99" s="17"/>
       <c r="N99" s="24"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="15"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5125,8 +5412,9 @@
       <c r="L100" s="3"/>
       <c r="M100" s="17"/>
       <c r="N100" s="24"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="15"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5141,8 +5429,9 @@
       <c r="L101" s="3"/>
       <c r="M101" s="17"/>
       <c r="N101" s="24"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="15"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5157,8 +5446,9 @@
       <c r="L102" s="3"/>
       <c r="M102" s="17"/>
       <c r="N102" s="24"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="15"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5173,8 +5463,9 @@
       <c r="L103" s="3"/>
       <c r="M103" s="17"/>
       <c r="N103" s="24"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="15"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5189,8 +5480,9 @@
       <c r="L104" s="3"/>
       <c r="M104" s="17"/>
       <c r="N104" s="24"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="15"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5205,8 +5497,9 @@
       <c r="L105" s="3"/>
       <c r="M105" s="17"/>
       <c r="N105" s="24"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="15"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5221,8 +5514,9 @@
       <c r="L106" s="3"/>
       <c r="M106" s="17"/>
       <c r="N106" s="24"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="15"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5237,8 +5531,9 @@
       <c r="L107" s="3"/>
       <c r="M107" s="17"/>
       <c r="N107" s="24"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="15"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5253,8 +5548,9 @@
       <c r="L108" s="3"/>
       <c r="M108" s="17"/>
       <c r="N108" s="24"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="15"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5269,8 +5565,9 @@
       <c r="L109" s="3"/>
       <c r="M109" s="17"/>
       <c r="N109" s="24"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="15"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5285,8 +5582,9 @@
       <c r="L110" s="3"/>
       <c r="M110" s="17"/>
       <c r="N110" s="24"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="15"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5301,8 +5599,9 @@
       <c r="L111" s="3"/>
       <c r="M111" s="17"/>
       <c r="N111" s="24"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="15"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5317,8 +5616,9 @@
       <c r="L112" s="3"/>
       <c r="M112" s="17"/>
       <c r="N112" s="24"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="15"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5333,8 +5633,9 @@
       <c r="L113" s="3"/>
       <c r="M113" s="17"/>
       <c r="N113" s="24"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="15"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5349,8 +5650,9 @@
       <c r="L114" s="3"/>
       <c r="M114" s="17"/>
       <c r="N114" s="24"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="15"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5365,8 +5667,9 @@
       <c r="L115" s="3"/>
       <c r="M115" s="17"/>
       <c r="N115" s="24"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="15"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5381,8 +5684,9 @@
       <c r="L116" s="3"/>
       <c r="M116" s="17"/>
       <c r="N116" s="24"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="15"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5397,8 +5701,9 @@
       <c r="L117" s="3"/>
       <c r="M117" s="17"/>
       <c r="N117" s="24"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5413,8 +5718,9 @@
       <c r="L118" s="3"/>
       <c r="M118" s="17"/>
       <c r="N118" s="24"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="15"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5429,8 +5735,9 @@
       <c r="L119" s="3"/>
       <c r="M119" s="17"/>
       <c r="N119" s="24"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="15"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5445,8 +5752,9 @@
       <c r="L120" s="3"/>
       <c r="M120" s="17"/>
       <c r="N120" s="24"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="15"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5461,8 +5769,9 @@
       <c r="L121" s="3"/>
       <c r="M121" s="17"/>
       <c r="N121" s="24"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5477,8 +5786,9 @@
       <c r="L122" s="3"/>
       <c r="M122" s="17"/>
       <c r="N122" s="24"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5493,8 +5803,9 @@
       <c r="L123" s="3"/>
       <c r="M123" s="17"/>
       <c r="N123" s="24"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="15"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5509,8 +5820,9 @@
       <c r="L124" s="3"/>
       <c r="M124" s="17"/>
       <c r="N124" s="24"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="15"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5525,8 +5837,9 @@
       <c r="L125" s="3"/>
       <c r="M125" s="17"/>
       <c r="N125" s="24"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="15"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5541,8 +5854,9 @@
       <c r="L126" s="3"/>
       <c r="M126" s="17"/>
       <c r="N126" s="24"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="15"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5557,8 +5871,9 @@
       <c r="L127" s="3"/>
       <c r="M127" s="17"/>
       <c r="N127" s="24"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="15"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5573,8 +5888,9 @@
       <c r="L128" s="3"/>
       <c r="M128" s="17"/>
       <c r="N128" s="24"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="15"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5589,8 +5905,9 @@
       <c r="L129" s="3"/>
       <c r="M129" s="17"/>
       <c r="N129" s="24"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="15"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5605,8 +5922,9 @@
       <c r="L130" s="3"/>
       <c r="M130" s="17"/>
       <c r="N130" s="24"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="15"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5621,8 +5939,9 @@
       <c r="L131" s="3"/>
       <c r="M131" s="17"/>
       <c r="N131" s="24"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="15"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5637,8 +5956,9 @@
       <c r="L132" s="3"/>
       <c r="M132" s="17"/>
       <c r="N132" s="24"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="15"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5653,8 +5973,9 @@
       <c r="L133" s="3"/>
       <c r="M133" s="17"/>
       <c r="N133" s="24"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="15"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5669,8 +5990,9 @@
       <c r="L134" s="3"/>
       <c r="M134" s="17"/>
       <c r="N134" s="24"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="15"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5685,8 +6007,9 @@
       <c r="L135" s="3"/>
       <c r="M135" s="17"/>
       <c r="N135" s="24"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="15"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5701,8 +6024,9 @@
       <c r="L136" s="3"/>
       <c r="M136" s="17"/>
       <c r="N136" s="24"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="15"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5717,8 +6041,9 @@
       <c r="L137" s="3"/>
       <c r="M137" s="17"/>
       <c r="N137" s="24"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="15"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5733,8 +6058,9 @@
       <c r="L138" s="3"/>
       <c r="M138" s="17"/>
       <c r="N138" s="24"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="15"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5749,8 +6075,9 @@
       <c r="L139" s="3"/>
       <c r="M139" s="17"/>
       <c r="N139" s="24"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="15"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5765,8 +6092,9 @@
       <c r="L140" s="3"/>
       <c r="M140" s="17"/>
       <c r="N140" s="24"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="15"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5781,8 +6109,9 @@
       <c r="L141" s="3"/>
       <c r="M141" s="17"/>
       <c r="N141" s="24"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="15"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5797,8 +6126,9 @@
       <c r="L142" s="3"/>
       <c r="M142" s="17"/>
       <c r="N142" s="24"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="15"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5813,8 +6143,9 @@
       <c r="L143" s="3"/>
       <c r="M143" s="17"/>
       <c r="N143" s="24"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="15"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5829,8 +6160,9 @@
       <c r="L144" s="3"/>
       <c r="M144" s="17"/>
       <c r="N144" s="24"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="15"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5845,8 +6177,9 @@
       <c r="L145" s="3"/>
       <c r="M145" s="17"/>
       <c r="N145" s="24"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="15"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5861,8 +6194,9 @@
       <c r="L146" s="3"/>
       <c r="M146" s="17"/>
       <c r="N146" s="24"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="15"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5877,8 +6211,9 @@
       <c r="L147" s="3"/>
       <c r="M147" s="17"/>
       <c r="N147" s="24"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="15"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5893,8 +6228,9 @@
       <c r="L148" s="3"/>
       <c r="M148" s="17"/>
       <c r="N148" s="24"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="15"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5909,8 +6245,9 @@
       <c r="L149" s="3"/>
       <c r="M149" s="17"/>
       <c r="N149" s="24"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="15"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5925,8 +6262,9 @@
       <c r="L150" s="3"/>
       <c r="M150" s="17"/>
       <c r="N150" s="24"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="15"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5941,8 +6279,9 @@
       <c r="L151" s="3"/>
       <c r="M151" s="17"/>
       <c r="N151" s="24"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="15"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5957,8 +6296,9 @@
       <c r="L152" s="3"/>
       <c r="M152" s="17"/>
       <c r="N152" s="24"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="15"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5973,8 +6313,9 @@
       <c r="L153" s="3"/>
       <c r="M153" s="17"/>
       <c r="N153" s="24"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="15"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5989,8 +6330,9 @@
       <c r="L154" s="3"/>
       <c r="M154" s="17"/>
       <c r="N154" s="24"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="15"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6005,8 +6347,9 @@
       <c r="L155" s="3"/>
       <c r="M155" s="17"/>
       <c r="N155" s="24"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="15"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6021,8 +6364,9 @@
       <c r="L156" s="3"/>
       <c r="M156" s="17"/>
       <c r="N156" s="24"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="15"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6037,8 +6381,9 @@
       <c r="L157" s="3"/>
       <c r="M157" s="17"/>
       <c r="N157" s="24"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="15"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6053,8 +6398,9 @@
       <c r="L158" s="3"/>
       <c r="M158" s="17"/>
       <c r="N158" s="24"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="15"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6069,8 +6415,9 @@
       <c r="L159" s="3"/>
       <c r="M159" s="17"/>
       <c r="N159" s="24"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="15"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6085,8 +6432,9 @@
       <c r="L160" s="3"/>
       <c r="M160" s="17"/>
       <c r="N160" s="24"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="15"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6101,8 +6449,9 @@
       <c r="L161" s="3"/>
       <c r="M161" s="17"/>
       <c r="N161" s="24"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="15"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6117,8 +6466,9 @@
       <c r="L162" s="3"/>
       <c r="M162" s="17"/>
       <c r="N162" s="24"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="15"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6133,8 +6483,9 @@
       <c r="L163" s="3"/>
       <c r="M163" s="17"/>
       <c r="N163" s="24"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="15"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6149,8 +6500,9 @@
       <c r="L164" s="3"/>
       <c r="M164" s="17"/>
       <c r="N164" s="24"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="15"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6165,8 +6517,9 @@
       <c r="L165" s="3"/>
       <c r="M165" s="17"/>
       <c r="N165" s="24"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="15"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6181,8 +6534,9 @@
       <c r="L166" s="3"/>
       <c r="M166" s="17"/>
       <c r="N166" s="24"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="15"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6197,8 +6551,9 @@
       <c r="L167" s="3"/>
       <c r="M167" s="17"/>
       <c r="N167" s="24"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="15"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6213,8 +6568,9 @@
       <c r="L168" s="3"/>
       <c r="M168" s="17"/>
       <c r="N168" s="24"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="15"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6229,8 +6585,9 @@
       <c r="L169" s="3"/>
       <c r="M169" s="17"/>
       <c r="N169" s="24"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="15"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6245,8 +6602,9 @@
       <c r="L170" s="3"/>
       <c r="M170" s="17"/>
       <c r="N170" s="24"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="15"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6261,8 +6619,9 @@
       <c r="L171" s="3"/>
       <c r="M171" s="17"/>
       <c r="N171" s="24"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="15"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6277,8 +6636,9 @@
       <c r="L172" s="3"/>
       <c r="M172" s="17"/>
       <c r="N172" s="24"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="15"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6293,8 +6653,9 @@
       <c r="L173" s="3"/>
       <c r="M173" s="17"/>
       <c r="N173" s="24"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="15"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6309,8 +6670,9 @@
       <c r="L174" s="3"/>
       <c r="M174" s="17"/>
       <c r="N174" s="24"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="15"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6325,8 +6687,9 @@
       <c r="L175" s="3"/>
       <c r="M175" s="17"/>
       <c r="N175" s="24"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="15"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6341,8 +6704,9 @@
       <c r="L176" s="3"/>
       <c r="M176" s="17"/>
       <c r="N176" s="24"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="15"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6357,8 +6721,9 @@
       <c r="L177" s="3"/>
       <c r="M177" s="17"/>
       <c r="N177" s="24"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="15"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6373,8 +6738,9 @@
       <c r="L178" s="3"/>
       <c r="M178" s="17"/>
       <c r="N178" s="24"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="15"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6389,8 +6755,9 @@
       <c r="L179" s="3"/>
       <c r="M179" s="17"/>
       <c r="N179" s="24"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="15"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6405,8 +6772,9 @@
       <c r="L180" s="3"/>
       <c r="M180" s="17"/>
       <c r="N180" s="24"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="15"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6421,8 +6789,9 @@
       <c r="L181" s="3"/>
       <c r="M181" s="17"/>
       <c r="N181" s="24"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="15"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6437,8 +6806,9 @@
       <c r="L182" s="3"/>
       <c r="M182" s="17"/>
       <c r="N182" s="24"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="15"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6453,8 +6823,9 @@
       <c r="L183" s="3"/>
       <c r="M183" s="17"/>
       <c r="N183" s="24"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="15"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6469,8 +6840,9 @@
       <c r="L184" s="3"/>
       <c r="M184" s="17"/>
       <c r="N184" s="24"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="15"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6485,8 +6857,9 @@
       <c r="L185" s="3"/>
       <c r="M185" s="17"/>
       <c r="N185" s="24"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="15"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6501,8 +6874,9 @@
       <c r="L186" s="3"/>
       <c r="M186" s="17"/>
       <c r="N186" s="24"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="15"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6517,8 +6891,9 @@
       <c r="L187" s="3"/>
       <c r="M187" s="17"/>
       <c r="N187" s="24"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="15"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6533,8 +6908,9 @@
       <c r="L188" s="3"/>
       <c r="M188" s="17"/>
       <c r="N188" s="24"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="15"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6549,8 +6925,9 @@
       <c r="L189" s="3"/>
       <c r="M189" s="17"/>
       <c r="N189" s="24"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="15"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6565,8 +6942,9 @@
       <c r="L190" s="3"/>
       <c r="M190" s="17"/>
       <c r="N190" s="24"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="15"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6581,8 +6959,9 @@
       <c r="L191" s="3"/>
       <c r="M191" s="17"/>
       <c r="N191" s="24"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="15"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6597,8 +6976,9 @@
       <c r="L192" s="3"/>
       <c r="M192" s="17"/>
       <c r="N192" s="24"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="15"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6613,8 +6993,9 @@
       <c r="L193" s="3"/>
       <c r="M193" s="17"/>
       <c r="N193" s="24"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="15"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6629,8 +7010,9 @@
       <c r="L194" s="3"/>
       <c r="M194" s="17"/>
       <c r="N194" s="24"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="15"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6645,8 +7027,9 @@
       <c r="L195" s="3"/>
       <c r="M195" s="17"/>
       <c r="N195" s="24"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="15"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6661,8 +7044,9 @@
       <c r="L196" s="3"/>
       <c r="M196" s="17"/>
       <c r="N196" s="24"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="15"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6677,8 +7061,9 @@
       <c r="L197" s="3"/>
       <c r="M197" s="17"/>
       <c r="N197" s="24"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="15"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6693,8 +7078,9 @@
       <c r="L198" s="3"/>
       <c r="M198" s="17"/>
       <c r="N198" s="24"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="15"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6709,8 +7095,9 @@
       <c r="L199" s="3"/>
       <c r="M199" s="17"/>
       <c r="N199" s="24"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="15"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6725,8 +7112,9 @@
       <c r="L200" s="3"/>
       <c r="M200" s="17"/>
       <c r="N200" s="24"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="15"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6741,8 +7129,9 @@
       <c r="L201" s="3"/>
       <c r="M201" s="17"/>
       <c r="N201" s="24"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="15"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6757,8 +7146,9 @@
       <c r="L202" s="3"/>
       <c r="M202" s="17"/>
       <c r="N202" s="24"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="15"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6773,8 +7163,9 @@
       <c r="L203" s="3"/>
       <c r="M203" s="17"/>
       <c r="N203" s="24"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="15"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6789,6 +7180,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="17"/>
       <c r="N204" s="24"/>
+      <c r="O204" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F6:H6">

--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6568CB6-1140-401C-A8A6-54F5FE300682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E59E8C-0DF9-4133-9FB6-29A9F0F218D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:W204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E59E8C-0DF9-4133-9FB6-29A9F0F218D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293D8DE-F1B8-4F32-9366-BECCE38F26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,46 +602,46 @@
     <t>Dogshit level. Unbalanced, boring, inconsistent and buggy. Absolute trash</t>
   </si>
   <si>
+    <t>suomi</t>
+  </si>
+  <si>
+    <t>didn't bother with practice mode, just went for it. Like a 5 month gap between when I started and when I finished</t>
+  </si>
+  <si>
+    <t>Perfectly fun and consistent level ruined by a shitty ending. Feels more like a hard medium</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Theory of Every v2</t>
+  </si>
+  <si>
+    <t>Electroman Adven v2</t>
+  </si>
+  <si>
+    <t>Clubstep v2</t>
+  </si>
+  <si>
+    <t>Electrodynamix v2</t>
+  </si>
+  <si>
+    <t>Difficulty Face</t>
+  </si>
+  <si>
+    <t>assets\easy demon.png</t>
+  </si>
+  <si>
+    <t>assets\medium demon.png</t>
+  </si>
+  <si>
+    <t>assets\hard demon.png</t>
+  </si>
+  <si>
+    <t>assets\insane demon.png</t>
+  </si>
+  <si>
     <t>Space Circles</t>
-  </si>
-  <si>
-    <t>suomi</t>
-  </si>
-  <si>
-    <t>didn't bother with practice mode, just went for it. Like a 5 month gap between when I started and when I finished</t>
-  </si>
-  <si>
-    <t>Perfectly fun and consistent level ruined by a shitty ending. Feels more like a hard medium</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Theory of Every v2</t>
-  </si>
-  <si>
-    <t>Electroman Adven v2</t>
-  </si>
-  <si>
-    <t>Clubstep v2</t>
-  </si>
-  <si>
-    <t>Electrodynamix v2</t>
-  </si>
-  <si>
-    <t>Difficulty Face</t>
-  </si>
-  <si>
-    <t>assets\easy demon.png</t>
-  </si>
-  <si>
-    <t>assets\medium demon.png</t>
-  </si>
-  <si>
-    <t>assets\hard demon.png</t>
-  </si>
-  <si>
-    <t>assets\insane demon.png</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,9 +837,6 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,9 +844,6 @@
   <dxfs count="17">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -905,6 +899,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -943,19 +940,19 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{56DF459D-08D6-4AB1-B9B2-71C007AC59D2}" name="Name" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{51D909E7-5796-48D9-B1C8-AB9E9912ED53}" name="id" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{288996E6-CB83-4073-A21D-AE12D4E8ED9B}" name="Difficulty" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AFF4338A-8FE0-4BB7-AA4B-F9CD876E0BFB}" name="Demon #" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0B3E96BD-0AB1-4296-806D-23D4FA0EE61B}" name="Creator" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{BA15436F-983E-41FC-805A-F7E962570746}" name="Attempts" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D3151768-B3F2-4000-945A-B7C49D94A1B3}" name="Enjoyment (/10)" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{147DC1DB-90AB-4BBC-A8AD-7579002940F7}" name="Date Beaten" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{38DBF703-EC39-164E-A407-6E542BA68339}" name="Hardest?" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{F0AA1DE1-B6A9-D04C-9988-2C62A366D6B6}" name="GDDL Hardest?" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{61951582-C4D0-D541-A56A-F1BEA764E275}" name="Length" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{C7419438-83E2-B040-A057-8B87F10542CA}" name="Old Attempts" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{17F71645-FB54-684E-994F-427F3E2E51D0}" name="GDDL Rating" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{EEEEF184-2B4D-C844-8524-3F4F1A03CDC9}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{51D909E7-5796-48D9-B1C8-AB9E9912ED53}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{288996E6-CB83-4073-A21D-AE12D4E8ED9B}" name="Difficulty" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AFF4338A-8FE0-4BB7-AA4B-F9CD876E0BFB}" name="Demon #" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0B3E96BD-0AB1-4296-806D-23D4FA0EE61B}" name="Creator" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{BA15436F-983E-41FC-805A-F7E962570746}" name="Attempts" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D3151768-B3F2-4000-945A-B7C49D94A1B3}" name="Enjoyment (/10)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{147DC1DB-90AB-4BBC-A8AD-7579002940F7}" name="Date Beaten" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{38DBF703-EC39-164E-A407-6E542BA68339}" name="Hardest?" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{F0AA1DE1-B6A9-D04C-9988-2C62A366D6B6}" name="GDDL Hardest?" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{61951582-C4D0-D541-A56A-F1BEA764E275}" name="Length" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C7419438-83E2-B040-A057-8B87F10542CA}" name="Old Attempts" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{17F71645-FB54-684E-994F-427F3E2E51D0}" name="GDDL Rating" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{EEEEF184-2B4D-C844-8524-3F4F1A03CDC9}" name="Comments" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{302F0A8E-13FD-4B09-9026-364054FAEACC}" name="Difficulty Face" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1261,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068AFFB6-380B-984F-B14E-0E23285F277F}">
   <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="77" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1326,13 +1323,13 @@
       <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="27" t="s">
-        <v>196</v>
+      <c r="O1" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3">
         <v>369294</v>
@@ -1372,7 +1369,7 @@
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="15"/>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3">
         <v>428765</v>
@@ -1429,7 +1426,7 @@
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="15"/>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3">
         <v>450920</v>
@@ -1486,7 +1483,7 @@
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="15"/>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3">
         <v>839175</v>
@@ -1543,7 +1540,7 @@
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="15"/>
@@ -1600,7 +1597,7 @@
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1646,7 +1643,7 @@
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1692,7 +1689,7 @@
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1738,7 +1735,7 @@
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1784,7 +1781,7 @@
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1830,7 +1827,7 @@
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1875,7 +1872,7 @@
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1921,7 +1918,7 @@
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1966,7 +1963,7 @@
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2012,7 +2009,7 @@
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2058,7 +2055,7 @@
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2103,7 +2100,7 @@
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2149,7 +2146,7 @@
       </c>
       <c r="N18" s="24"/>
       <c r="O18" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2195,7 +2192,7 @@
       </c>
       <c r="N19" s="24"/>
       <c r="O19" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2285,7 +2282,7 @@
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2331,7 +2328,7 @@
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2377,7 +2374,7 @@
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,7 +2420,7 @@
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2469,7 +2466,7 @@
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2514,7 +2511,7 @@
       </c>
       <c r="N26" s="24"/>
       <c r="O26" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2559,7 +2556,7 @@
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2604,7 +2601,7 @@
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2649,7 +2646,7 @@
       </c>
       <c r="N29" s="24"/>
       <c r="O29" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2694,7 +2691,7 @@
       </c>
       <c r="N30" s="24"/>
       <c r="O30" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2739,7 +2736,7 @@
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2785,7 +2782,7 @@
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2830,7 +2827,7 @@
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2876,7 +2873,7 @@
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2967,7 +2964,7 @@
       </c>
       <c r="N36" s="24"/>
       <c r="O36" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3013,7 +3010,7 @@
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3059,7 +3056,7 @@
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
       </c>
       <c r="N40" s="24"/>
       <c r="O40" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3195,7 +3192,7 @@
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3241,7 +3238,7 @@
       </c>
       <c r="N42" s="24"/>
       <c r="O42" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3286,7 +3283,7 @@
       </c>
       <c r="N43" s="24"/>
       <c r="O43" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3332,7 +3329,7 @@
       </c>
       <c r="N44" s="24"/>
       <c r="O44" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
       </c>
       <c r="N45" s="24"/>
       <c r="O45" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3423,7 +3420,7 @@
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3468,7 +3465,7 @@
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3513,7 +3510,7 @@
       </c>
       <c r="N48" s="24"/>
       <c r="O48" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3559,7 +3556,7 @@
       </c>
       <c r="N49" s="24"/>
       <c r="O49" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3605,7 +3602,7 @@
       </c>
       <c r="N50" s="24"/>
       <c r="O50" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3651,7 +3648,7 @@
       </c>
       <c r="N51" s="24"/>
       <c r="O51" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3697,7 +3694,7 @@
       </c>
       <c r="N52" s="24"/>
       <c r="O52" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3743,7 +3740,7 @@
       </c>
       <c r="N53" s="24"/>
       <c r="O53" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3789,7 +3786,7 @@
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3835,7 +3832,7 @@
       </c>
       <c r="N55" s="24"/>
       <c r="O55" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3881,7 +3878,7 @@
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3927,7 +3924,7 @@
       </c>
       <c r="N57" s="24"/>
       <c r="O57" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>112</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4023,7 +4020,7 @@
         <v>101</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -4069,7 +4066,7 @@
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4115,7 +4112,7 @@
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -4161,7 +4158,7 @@
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4208,7 +4205,7 @@
         <v>60</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4256,7 +4253,7 @@
         <v>72</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4302,7 +4299,7 @@
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -4350,7 +4347,7 @@
         <v>186</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -4396,7 +4393,7 @@
       </c>
       <c r="N67" s="24"/>
       <c r="O67" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -4444,7 +4441,7 @@
         <v>69</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4491,7 +4488,7 @@
         <v>93</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4538,7 +4535,7 @@
         <v>57</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4583,10 +4580,10 @@
         <v>13.19</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -4633,7 +4630,7 @@
         <v>131</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4680,7 +4677,7 @@
         <v>63</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -4727,7 +4724,7 @@
         <v>54</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -4774,7 +4771,7 @@
         <v>51</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -4822,7 +4819,7 @@
         <v>47</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P76" s="24"/>
     </row>
@@ -4870,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4917,7 +4914,7 @@
         <v>35</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4964,7 +4961,7 @@
         <v>179</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5011,7 +5008,7 @@
         <v>182</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -5058,12 +5055,12 @@
         <v>185</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B82" s="3">
         <v>9864147</v>
@@ -5075,7 +5072,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F82" s="3">
         <v>575</v>
@@ -5102,10 +5099,10 @@
         <v>2.92</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">

--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293D8DE-F1B8-4F32-9366-BECCE38F26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327B3E1-BC3D-45F0-96AB-E28B0D9D66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>Space Circles</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>sillow</t>
+  </si>
+  <si>
+    <t>Wow. 6 months of work, 3x 99% later I finally beat it. I would've liked this level more if I didn’t take so long. Boring first 15%</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068AFFB6-380B-984F-B14E-0E23285F277F}">
   <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="77" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="I73" zoomScale="77" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1390,7 @@
       </c>
       <c r="W2" s="18">
         <f>SUM(Table1[Attempts])</f>
-        <v>127482</v>
+        <v>136323</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1438,7 +1447,7 @@
       </c>
       <c r="W3" s="18">
         <f>ROUND(AVERAGE(Table1[Attempts]),0)</f>
-        <v>1574</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1495,7 +1504,7 @@
       </c>
       <c r="W4" s="19">
         <f>AVERAGE(Table1[Enjoyment (/10)])</f>
-        <v>7.2283950617283947</v>
+        <v>7.1951219512195124</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5106,21 +5115,52 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="15"/>
+      <c r="A83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="3">
+        <v>62909889</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="3">
+        <v>127</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F83" s="3">
+        <f>948+7893</f>
+        <v>8841</v>
+      </c>
+      <c r="G83" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H83" s="6">
+        <v>45951</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3785</v>
+      </c>
+      <c r="M83" s="17">
+        <v>10.91</v>
+      </c>
+      <c r="N83" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>

--- a/GD Demon List.xlsx
+++ b/GD Demon List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\demonlist\demonlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327B3E1-BC3D-45F0-96AB-E28B0D9D66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD0489-ABF3-429E-844C-7A2AED183E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1215" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="207">
   <si>
     <t>Name</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>Wow. 6 months of work, 3x 99% later I finally beat it. I would've liked this level more if I didn’t take so long. Boring first 15%</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>2003devin</t>
+  </si>
+  <si>
+    <t>Tough learning process but doable with speedhack. Fun to play once id learned it</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068AFFB6-380B-984F-B14E-0E23285F277F}">
   <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I73" zoomScale="77" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="77" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1399,7 @@
       </c>
       <c r="W2" s="18">
         <f>SUM(Table1[Attempts])</f>
-        <v>136323</v>
+        <v>137553</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1447,7 +1456,7 @@
       </c>
       <c r="W3" s="18">
         <f>ROUND(AVERAGE(Table1[Attempts]),0)</f>
-        <v>1662</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1504,7 +1513,7 @@
       </c>
       <c r="W4" s="19">
         <f>AVERAGE(Table1[Enjoyment (/10)])</f>
-        <v>7.1951219512195124</v>
+        <v>7.2048192771084336</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5163,21 +5172,51 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="15"/>
+      <c r="A84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="3">
+        <v>68923366</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="3">
+        <v>128</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1230</v>
+      </c>
+      <c r="G84" s="5">
+        <v>8</v>
+      </c>
+      <c r="H84" s="6">
+        <v>45952</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="15">
+        <v>3.6111111111111108E-2</v>
+      </c>
+      <c r="L84" s="3">
+        <v>168</v>
+      </c>
+      <c r="M84" s="17">
+        <v>12.13</v>
+      </c>
+      <c r="N84" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O84" s="15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
